--- a/results/ElasticNet-train_df.xlsx
+++ b/results/ElasticNet-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5925925925925927</v>
+        <v>0.6823529411764706</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.72</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6857142857142857</v>
+        <v>0.7326732673267325</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6390697674418604</v>
+        <v>0.7106845513413507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6430622009569378</v>
+        <v>0.7179425837320574</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6391534391534393</v>
+        <v>0.7075131042516016</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6538634658664667</v>
+        <v>0.7278057951120527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6476645616430564</v>
+        <v>0.7121122738459804</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="C7" t="n">
         <v>0.6578947368421053</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6514378478664193</v>
+        <v>0.6334412580943571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6562200956937799</v>
+        <v>0.6380382775119617</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6510318949343339</v>
+        <v>0.6309523809523809</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6666566920023141</v>
+        <v>0.6498861070494266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6585769331638726</v>
+        <v>0.6374807987711214</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5569620253164557</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6545454545454545</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6728971962616823</v>
+        <v>0.7339449541284404</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6144465290806754</v>
+        <v>0.6780626780626781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6167464114832536</v>
+        <v>0.6794258373205742</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6149296107890689</v>
+        <v>0.6786607887525319</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6286792148318505</v>
+        <v>0.6895199583371626</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6236559139784946</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6255258360905145</v>
+        <v>0.6887664964018915</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C17" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7254901960784313</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6981132075471698</v>
+        <v>0.7358490566037736</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6484593837535013</v>
+        <v>0.6918767507002801</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6521531100478468</v>
+        <v>0.6966507177033493</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6490566037735849</v>
+        <v>0.6929245283018869</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6625402849311768</v>
+        <v>0.7051896027228095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6580239399472511</v>
+        <v>0.7007709474538447</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C22" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6075949367088608</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7307692307692307</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6909090909090909</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7102803738317757</v>
+        <v>0.7358490566037736</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6580675422138836</v>
+        <v>0.6918767507002801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.661244019138756</v>
+        <v>0.6966507177033493</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6589376552703182</v>
+        <v>0.6929245283018869</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6713570981863665</v>
+        <v>0.7051896027228095</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6683228833944557</v>
+        <v>0.7007709474538447</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
